--- a/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Story/Tadpole_ET_summary_Story_FB1_NoLabels_2.00-2.25.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Story/Tadpole_ET_summary_Story_FB1_NoLabels_2.00-2.25.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,24 +2661,118 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>77</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>78</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1">
         <v>0.25</v>
       </c>
       <c r="C52" s="1">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E52" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2694,19 +2784,19 @@
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M52" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N52" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O52" s="1">
         <v>0</v>
@@ -2714,7 +2804,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1">
         <v>0.25</v>
@@ -2723,16 +2813,16 @@
         <v>0.25</v>
       </c>
       <c r="D53" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F53" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H53" s="1">
         <v>0.25</v>
@@ -2741,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L53" s="1">
         <v>0.25</v>
@@ -2753,21 +2843,21 @@
         <v>0</v>
       </c>
       <c r="N53" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O53" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B54" s="1">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="C54" s="1">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="D54" s="1">
         <v>0.25</v>
@@ -2776,31 +2866,31 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K54" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M54" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N54" s="1">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="O54" s="1">
         <v>0</v>
@@ -2808,10 +2898,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
         <v>0.25</v>
@@ -2823,42 +2913,42 @@
         <v>0.25</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G55" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K55" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M55" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N55" s="1">
         <v>0</v>
       </c>
       <c r="O55" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="1">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="C56" s="1">
         <v>0.25</v>
@@ -2870,31 +2960,31 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I56" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J56" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
         <v>0</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
       </c>
       <c r="N56" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O56" s="1">
         <v>0</v>
@@ -2902,7 +2992,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -2914,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2929,19 +3019,19 @@
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L57" s="1">
         <v>0</v>
       </c>
       <c r="M57" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N57" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O57" s="1">
         <v>0</v>
@@ -2949,7 +3039,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1">
         <v>0.25</v>
@@ -2958,7 +3048,7 @@
         <v>0.25</v>
       </c>
       <c r="D58" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -2967,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -2982,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M58" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N58" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O58" s="1">
         <v>0</v>
@@ -2996,10 +3086,10 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C59" s="1">
         <v>0.25</v>
@@ -3008,34 +3098,34 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K59" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
       </c>
       <c r="N59" s="1">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="O59" s="1">
         <v>0</v>
@@ -3043,7 +3133,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="1">
         <v>0.25</v>
@@ -3052,7 +3142,7 @@
         <v>0.25</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3067,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K60" s="1">
         <v>0</v>
@@ -3082,27 +3172,27 @@
         <v>0.25</v>
       </c>
       <c r="N60" s="1">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="O60" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="1">
         <v>0.25</v>
       </c>
       <c r="C61" s="1">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E61" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1">
         <v>0.25</v>
@@ -3123,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="L61" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O61" s="1">
         <v>0</v>
@@ -3137,37 +3227,37 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1">
         <v>0.25</v>
       </c>
       <c r="C62" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I62" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L62" s="1">
         <v>0</v>
@@ -3176,30 +3266,30 @@
         <v>0.25</v>
       </c>
       <c r="N62" s="1">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="O62" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="1">
         <v>0.25</v>
       </c>
       <c r="C63" s="1">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="D63" s="1">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F63" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -3211,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
         <v>0</v>
       </c>
       <c r="L63" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M63" s="1">
         <v>0</v>
@@ -3226,30 +3316,30 @@
         <v>0</v>
       </c>
       <c r="O63" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G64" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
         <v>0.25</v>
@@ -3258,39 +3348,39 @@
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K64" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M64" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N64" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O64" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B65" s="1">
         <v>0.25</v>
       </c>
       <c r="C65" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="D65" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3311,42 +3401,42 @@
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M65" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N65" s="1">
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C66" s="1">
         <v>0.25</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E66" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -3364,33 +3454,33 @@
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O66" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E67" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H67" s="1">
         <v>0.25</v>
@@ -3405,36 +3495,36 @@
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M67" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N67" s="1">
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="1">
         <v>0.25</v>
       </c>
       <c r="C68" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="D68" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F68" s="1">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -3446,19 +3536,19 @@
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M68" s="1">
         <v>0</v>
       </c>
       <c r="N68" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O68" s="1">
         <v>0</v>
@@ -3466,16 +3556,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C69" s="1">
         <v>0.25</v>
       </c>
       <c r="D69" s="1">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -3484,10 +3574,10 @@
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -3505,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O69" s="1">
         <v>0</v>
@@ -3513,19 +3603,19 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="1">
         <v>0.25</v>
       </c>
       <c r="C70" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E70" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F70" s="1">
         <v>0.25</v>
@@ -3537,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K70" s="1">
         <v>0</v>
       </c>
       <c r="L70" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M70" s="1">
         <v>0</v>
       </c>
       <c r="N70" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O70" s="1">
         <v>0</v>
@@ -3560,7 +3650,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="1">
         <v>0.25</v>
@@ -3569,34 +3659,34 @@
         <v>0.25</v>
       </c>
       <c r="D71" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L71" s="1">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="M71" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="N71" s="1">
         <v>0.25</v>
@@ -3607,13 +3697,13 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="1">
         <v>0.25</v>
       </c>
       <c r="C72" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
         <v>0.25</v>
@@ -3622,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
@@ -3634,19 +3724,19 @@
         <v>0.25</v>
       </c>
       <c r="J72" s="1">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M72" s="1">
         <v>0</v>
       </c>
       <c r="N72" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O72" s="1">
         <v>0</v>
@@ -3654,60 +3744,60 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E73" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I73" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M73" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N73" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O73" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B74" s="1">
         <v>0.25</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D74" s="1">
         <v>0.25</v>
@@ -3722,19 +3812,19 @@
         <v>0.25</v>
       </c>
       <c r="H74" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I74" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J74" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="K74" s="1">
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M74" s="1">
         <v>0</v>
@@ -3743,39 +3833,39 @@
         <v>0</v>
       </c>
       <c r="O74" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D75" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F75" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K75" s="1">
         <v>0</v>
@@ -3784,18 +3874,18 @@
         <v>0</v>
       </c>
       <c r="M75" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N75" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="O75" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B76" s="1">
         <v>0.25</v>
@@ -3810,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G76" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -3842,7 +3932,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B77" s="1">
         <v>0.25</v>
@@ -3857,10 +3947,10 @@
         <v>0.25</v>
       </c>
       <c r="F77" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
@@ -3881,7 +3971,7 @@
         <v>0.25</v>
       </c>
       <c r="N77" s="1">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="O77" s="1">
         <v>0</v>
@@ -3889,7 +3979,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B78" s="1">
         <v>0.25</v>
@@ -3898,22 +3988,22 @@
         <v>0.25</v>
       </c>
       <c r="D78" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F78" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H78" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J78" s="1">
         <v>0.25</v>
@@ -3922,45 +4012,45 @@
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M78" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N78" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O78" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E79" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G79" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H79" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I79" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J79" s="1">
         <v>0.25</v>
@@ -3969,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M79" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N79" s="1">
         <v>0.25</v>
@@ -3983,7 +4073,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="1">
         <v>0.25</v>
@@ -3992,10 +4082,10 @@
         <v>0.25</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E80" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4004,10 +4094,10 @@
         <v>0.25</v>
       </c>
       <c r="H80" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I80" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J80" s="1">
         <v>0.25</v>
@@ -4030,13 +4120,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D81" s="1">
         <v>0.25</v>
@@ -4057,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="1">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="K81" s="1">
         <v>0</v>
@@ -4077,13 +4167,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B82" s="1">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="C82" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
         <v>0.25</v>
@@ -4095,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H82" s="1">
         <v>0.25</v>
@@ -4110,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="L82" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M82" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N82" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O82" s="1">
         <v>0</v>
@@ -4124,10 +4214,10 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C83" s="1">
         <v>0.25</v>
@@ -4139,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
@@ -4151,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1">
         <v>0</v>
@@ -4171,31 +4261,31 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B84" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D84" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F84" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G84" s="1">
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I84" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J84" s="1">
         <v>0.25</v>
@@ -4204,36 +4294,36 @@
         <v>0</v>
       </c>
       <c r="L84" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M84" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N84" s="1">
         <v>0</v>
       </c>
       <c r="O84" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C85" s="1">
         <v>0.25</v>
       </c>
       <c r="D85" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F85" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G85" s="1">
         <v>0</v>
@@ -4245,16 +4335,16 @@
         <v>0</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K85" s="1">
         <v>0</v>
       </c>
       <c r="L85" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="M85" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="N85" s="1">
         <v>0.25</v>
@@ -4265,22 +4355,22 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C86" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E86" s="1">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F86" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
@@ -4289,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="I86" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J86" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
         <v>0</v>
@@ -4301,18 +4391,18 @@
         <v>0</v>
       </c>
       <c r="M86" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N86" s="1">
         <v>0</v>
       </c>
       <c r="O86" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="1">
         <v>0.25</v>
@@ -4321,22 +4411,22 @@
         <v>0.25</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E87" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="F87" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G87" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H87" s="1">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J87" s="1">
         <v>0.25</v>
@@ -4345,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="L87" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="M87" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N87" s="1">
         <v>0.25</v>
@@ -4359,46 +4449,46 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B88" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C88" s="1">
         <v>0.25</v>
       </c>
       <c r="D88" s="1">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="E88" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G88" s="1">
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
       </c>
       <c r="J88" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
       </c>
       <c r="L88" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M88" s="1">
         <v>0</v>
       </c>
       <c r="N88" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O88" s="1">
         <v>0</v>
@@ -4406,46 +4496,46 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B89" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H89" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="I89" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J89" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
         <v>0</v>
       </c>
       <c r="L89" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M89" s="1">
         <v>0</v>
       </c>
       <c r="N89" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O89" s="1">
         <v>0</v>
@@ -4453,69 +4543,69 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
         <v>0.08</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0</v>
-      </c>
-      <c r="L90" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="M90" s="1">
-        <v>0</v>
-      </c>
-      <c r="N90" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O90" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B91" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G91" s="1">
         <v>0</v>
@@ -4524,30 +4614,30 @@
         <v>0</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J91" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K91" s="1">
         <v>0</v>
       </c>
       <c r="L91" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M91" s="1">
         <v>0</v>
       </c>
       <c r="N91" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="O91" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B92" s="1">
         <v>0.25</v>
@@ -4559,130 +4649,36 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H92" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J92" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
       </c>
       <c r="L92" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M92" s="1">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="N92" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O92" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>125</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0</v>
-      </c>
-      <c r="I93" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J93" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="K93" s="1">
-        <v>0</v>
-      </c>
-      <c r="L93" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="M93" s="1">
-        <v>0</v>
-      </c>
-      <c r="N93" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="O93" s="1">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>126</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0</v>
-      </c>
-      <c r="E94" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F94" s="1">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="I94" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J94" s="1">
-        <v>0</v>
-      </c>
-      <c r="K94" s="1">
-        <v>0</v>
-      </c>
-      <c r="L94" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="M94" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="N94" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O94" s="1">
         <v>0</v>
       </c>
     </row>
